--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2428915.688784454</v>
+        <v>2426459.445038612</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9357313.99208422</v>
+        <v>9357313.992084216</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9267855.043723417</v>
+        <v>9267855.043723419</v>
       </c>
     </row>
     <row r="11">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="G2" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.284744599289772</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.864605585024304</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>4.284744599289405</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -750,16 +750,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.864605585024304</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.864605585024304</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="W3" t="n">
-        <v>3.538153273031548</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.864605585024304</v>
+        <v>4.284744599289772</v>
       </c>
     </row>
     <row r="4">
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.864605585024304</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.864605585024304</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.864605585024304</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>4.284744599289771</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="T4" t="n">
-        <v>1.563303864182894</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4.284744599289771</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="G5" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.864605585024304</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>4.284744599289405</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4.864605585024304</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="S6" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="T6" t="n">
-        <v>3.538153273031548</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>4.284744599289772</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.864605585024304</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>4.284744599289405</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="V7" t="n">
-        <v>4.864605585024304</v>
+        <v>4.284744599289772</v>
       </c>
       <c r="W7" t="n">
-        <v>4.864605585024304</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.602605461619507</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>6.84140014930867</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,70 +1209,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>13.47865120333094</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>12.73205987707308</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="I9" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>299.3180292651381</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>150.8276979582131</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
@@ -1385,7 +1385,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
         <v>204.0200353403094</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247658</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797542</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
@@ -1610,19 +1610,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>104.3047746527578</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
-        <v>75.82760557464115</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
@@ -1667,10 +1667,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247658</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1844,7 +1844,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
-        <v>318.297755152415</v>
+        <v>62.70162068205344</v>
       </c>
       <c r="D17" t="n">
         <v>307.7079050020904</v>
@@ -1859,7 +1859,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T17" t="n">
         <v>156.9428335210276</v>
@@ -1901,7 +1901,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
         <v>302.2658320988205</v>
@@ -1910,7 +1910,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
-        <v>179.0237868194974</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247658</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2008,19 +2008,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797663</v>
+        <v>99.458826027977</v>
       </c>
       <c r="F19" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2087,13 +2087,13 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>183.4737908556484</v>
       </c>
       <c r="H20" t="n">
         <v>247.6326277687279</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>35.7465065548889</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
         <v>280.7771218515423</v>
@@ -2144,7 +2144,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>339.262802037461</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2245,19 +2245,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F22" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247658</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2482,16 +2482,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F25" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I25" t="n">
         <v>49.37728379124555</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.26879610203903</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>47.59990604631724</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>44.33588889511017</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>90.27293084484242</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>380.0332881705223</v>
+        <v>380.0332881705224</v>
       </c>
       <c r="C32" t="n">
-        <v>362.5723382780493</v>
+        <v>362.5723382780494</v>
       </c>
       <c r="D32" t="n">
-        <v>351.9824881277247</v>
+        <v>351.9824881277248</v>
       </c>
       <c r="E32" t="n">
-        <v>379.2298165793035</v>
+        <v>379.2298165793036</v>
       </c>
       <c r="F32" t="n">
-        <v>404.1754922487532</v>
+        <v>404.1754922487533</v>
       </c>
       <c r="G32" t="n">
-        <v>408.2211721604952</v>
+        <v>408.2211721604953</v>
       </c>
       <c r="H32" t="n">
-        <v>291.9072108943622</v>
+        <v>291.9072108943623</v>
       </c>
       <c r="I32" t="n">
-        <v>38.8763762799677</v>
+        <v>38.87637627996781</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>106.4872082952176</v>
+        <v>106.4872082952177</v>
       </c>
       <c r="T32" t="n">
-        <v>201.2174166466619</v>
+        <v>201.217416646662</v>
       </c>
       <c r="U32" t="n">
-        <v>248.2946184659437</v>
+        <v>248.2946184659438</v>
       </c>
       <c r="V32" t="n">
-        <v>325.0517049771767</v>
+        <v>325.0517049771768</v>
       </c>
       <c r="W32" t="n">
-        <v>346.5404152244548</v>
+        <v>346.5404152244549</v>
       </c>
       <c r="X32" t="n">
-        <v>367.0305471855108</v>
+        <v>367.0305471855109</v>
       </c>
       <c r="Y32" t="n">
-        <v>383.5373851630953</v>
+        <v>383.5373851630955</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247681</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.131426688979</v>
+        <v>177.1314266889791</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>164.5462676056697</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>143.733409153611</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.4851962737811</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>26.63679171428632</v>
+        <v>86.23159917708918</v>
       </c>
       <c r="S34" t="n">
-        <v>187.0684718384836</v>
+        <v>187.0684718384837</v>
       </c>
       <c r="T34" t="n">
-        <v>216.8483957832109</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>283.5112847126546</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>249.4370898308697</v>
+        <v>249.4370898308698</v>
       </c>
       <c r="W34" t="n">
-        <v>283.8224448436328</v>
+        <v>283.8224448436329</v>
       </c>
       <c r="X34" t="n">
-        <v>223.0091018960789</v>
+        <v>223.009101896079</v>
       </c>
       <c r="Y34" t="n">
-        <v>215.8840998591365</v>
+        <v>215.8840998591366</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3326,10 +3326,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3487,7 +3487,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
         <v>171.6095167335022</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3901,7 +3901,7 @@
         <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>101.64033639962</v>
       </c>
       <c r="E43" t="n">
         <v>99.45882602797661</v>
@@ -3980,16 +3980,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.21665447715407</v>
+        <v>14.54467932492239</v>
       </c>
       <c r="C2" t="n">
-        <v>10.21665447715407</v>
+        <v>14.54467932492239</v>
       </c>
       <c r="D2" t="n">
-        <v>10.21665447715407</v>
+        <v>14.54467932492239</v>
       </c>
       <c r="E2" t="n">
-        <v>10.21665447715407</v>
+        <v>14.54467932492239</v>
       </c>
       <c r="F2" t="n">
-        <v>5.30291146197801</v>
+        <v>9.630936309745909</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3891684468019443</v>
+        <v>4.717193294569425</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3891684468019443</v>
+        <v>5.20512797597645</v>
       </c>
       <c r="M2" t="n">
-        <v>5.010543752575034</v>
+        <v>10.02108750515092</v>
       </c>
       <c r="N2" t="n">
-        <v>9.826503281749094</v>
+        <v>10.02108750515092</v>
       </c>
       <c r="O2" t="n">
-        <v>14.64246281092315</v>
+        <v>14.64246281092441</v>
       </c>
       <c r="P2" t="n">
-        <v>19.45842234009721</v>
+        <v>19.45842234009888</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.54467932492115</v>
+        <v>19.45842234009888</v>
       </c>
       <c r="R2" t="n">
-        <v>14.54467932492115</v>
+        <v>19.45842234009888</v>
       </c>
       <c r="S2" t="n">
-        <v>14.54467932492115</v>
+        <v>19.45842234009888</v>
       </c>
       <c r="T2" t="n">
-        <v>14.54467932492115</v>
+        <v>14.54467932492239</v>
       </c>
       <c r="U2" t="n">
-        <v>14.54467932492115</v>
+        <v>14.54467932492239</v>
       </c>
       <c r="V2" t="n">
-        <v>14.54467932492115</v>
+        <v>14.54467932492239</v>
       </c>
       <c r="W2" t="n">
-        <v>14.54467932492115</v>
+        <v>14.54467932492239</v>
       </c>
       <c r="X2" t="n">
-        <v>10.21665447715407</v>
+        <v>14.54467932492239</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.21665447715407</v>
+        <v>14.54467932492239</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.97078712993979</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="C3" t="n">
-        <v>10.97078712993979</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="D3" t="n">
-        <v>10.97078712993979</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="E3" t="n">
-        <v>10.97078712993979</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="F3" t="n">
-        <v>10.97078712993979</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="G3" t="n">
-        <v>6.057044114763723</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="H3" t="n">
-        <v>6.057044114763723</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="I3" t="n">
-        <v>1.143301099587658</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3891684468019443</v>
+        <v>5.20512797597645</v>
       </c>
       <c r="N3" t="n">
-        <v>5.010543752575034</v>
+        <v>5.20512797597645</v>
       </c>
       <c r="O3" t="n">
-        <v>9.826503281749094</v>
+        <v>9.826503281749932</v>
       </c>
       <c r="P3" t="n">
-        <v>14.64246281092315</v>
+        <v>14.64246281092441</v>
       </c>
       <c r="Q3" t="n">
-        <v>19.45842234009721</v>
+        <v>19.45842234009888</v>
       </c>
       <c r="R3" t="n">
-        <v>19.45842234009721</v>
+        <v>19.45842234009888</v>
       </c>
       <c r="S3" t="n">
-        <v>19.45842234009721</v>
+        <v>19.45842234009888</v>
       </c>
       <c r="T3" t="n">
-        <v>19.45842234009721</v>
+        <v>19.45842234009888</v>
       </c>
       <c r="U3" t="n">
-        <v>19.45842234009721</v>
+        <v>14.54467932492239</v>
       </c>
       <c r="V3" t="n">
-        <v>19.45842234009721</v>
+        <v>9.630936309745909</v>
       </c>
       <c r="W3" t="n">
-        <v>15.88453014511585</v>
+        <v>4.717193294569425</v>
       </c>
       <c r="X3" t="n">
-        <v>15.88453014511585</v>
+        <v>4.717193294569425</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.97078712993979</v>
+        <v>0.3891684468019775</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.13039749233014</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="C4" t="n">
-        <v>15.13039749233014</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="D4" t="n">
-        <v>15.13039749233014</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="E4" t="n">
-        <v>15.13039749233014</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="F4" t="n">
-        <v>10.21665447715407</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="G4" t="n">
-        <v>10.21665447715407</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="H4" t="n">
-        <v>5.30291146197801</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="L4" t="n">
-        <v>5.205127975976005</v>
+        <v>5.20512797597645</v>
       </c>
       <c r="M4" t="n">
-        <v>10.02108750515007</v>
+        <v>10.02108750515092</v>
       </c>
       <c r="N4" t="n">
-        <v>14.64246281092315</v>
+        <v>14.64246281092441</v>
       </c>
       <c r="O4" t="n">
-        <v>19.45842234009721</v>
+        <v>19.45842234009888</v>
       </c>
       <c r="P4" t="n">
-        <v>16.70949230463609</v>
+        <v>19.45842234009888</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.70949230463609</v>
+        <v>19.45842234009888</v>
       </c>
       <c r="R4" t="n">
-        <v>16.70949230463609</v>
+        <v>15.13039749233143</v>
       </c>
       <c r="S4" t="n">
-        <v>16.70949230463609</v>
+        <v>10.21665447715495</v>
       </c>
       <c r="T4" t="n">
-        <v>15.13039749233014</v>
+        <v>5.302911461978462</v>
       </c>
       <c r="U4" t="n">
-        <v>15.13039749233014</v>
+        <v>5.302911461978462</v>
       </c>
       <c r="V4" t="n">
-        <v>15.13039749233014</v>
+        <v>5.302911461978462</v>
       </c>
       <c r="W4" t="n">
-        <v>15.13039749233014</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="X4" t="n">
-        <v>15.13039749233014</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.13039749233014</v>
+        <v>0.3891684468019775</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.13039749233014</v>
+        <v>14.54467932492239</v>
       </c>
       <c r="C5" t="n">
-        <v>15.13039749233014</v>
+        <v>14.54467932492239</v>
       </c>
       <c r="D5" t="n">
-        <v>15.13039749233014</v>
+        <v>10.21665447715495</v>
       </c>
       <c r="E5" t="n">
-        <v>15.13039749233014</v>
+        <v>10.21665447715495</v>
       </c>
       <c r="F5" t="n">
-        <v>10.21665447715407</v>
+        <v>5.302911461978462</v>
       </c>
       <c r="G5" t="n">
-        <v>5.30291146197801</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="H5" t="n">
-        <v>5.30291146197801</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="I5" t="n">
-        <v>5.30291146197801</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="K5" t="n">
-        <v>5.205127975976005</v>
+        <v>5.20512797597645</v>
       </c>
       <c r="L5" t="n">
-        <v>9.826503281749094</v>
+        <v>10.02108750515092</v>
       </c>
       <c r="M5" t="n">
-        <v>9.826503281749094</v>
+        <v>14.64246281092441</v>
       </c>
       <c r="N5" t="n">
-        <v>14.64246281092315</v>
+        <v>19.45842234009888</v>
       </c>
       <c r="O5" t="n">
-        <v>14.64246281092315</v>
+        <v>19.45842234009888</v>
       </c>
       <c r="P5" t="n">
-        <v>19.45842234009721</v>
+        <v>19.45842234009888</v>
       </c>
       <c r="Q5" t="n">
-        <v>19.45842234009721</v>
+        <v>19.45842234009888</v>
       </c>
       <c r="R5" t="n">
-        <v>19.45842234009721</v>
+        <v>19.45842234009888</v>
       </c>
       <c r="S5" t="n">
-        <v>19.45842234009721</v>
+        <v>14.54467932492239</v>
       </c>
       <c r="T5" t="n">
-        <v>19.45842234009721</v>
+        <v>14.54467932492239</v>
       </c>
       <c r="U5" t="n">
-        <v>19.45842234009721</v>
+        <v>14.54467932492239</v>
       </c>
       <c r="V5" t="n">
-        <v>19.45842234009721</v>
+        <v>14.54467932492239</v>
       </c>
       <c r="W5" t="n">
-        <v>19.45842234009721</v>
+        <v>14.54467932492239</v>
       </c>
       <c r="X5" t="n">
-        <v>15.13039749233014</v>
+        <v>14.54467932492239</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.13039749233014</v>
+        <v>14.54467932492239</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.057044114763723</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="C6" t="n">
-        <v>6.057044114763723</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="D6" t="n">
-        <v>6.057044114763723</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="E6" t="n">
-        <v>6.057044114763723</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="F6" t="n">
-        <v>6.057044114763723</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="G6" t="n">
-        <v>6.057044114763723</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="H6" t="n">
-        <v>6.057044114763723</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="I6" t="n">
-        <v>1.143301099587658</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="K6" t="n">
-        <v>5.205127975976005</v>
+        <v>5.01054375257546</v>
       </c>
       <c r="L6" t="n">
-        <v>10.02108750515007</v>
+        <v>9.826503281749932</v>
       </c>
       <c r="M6" t="n">
-        <v>10.02108750515007</v>
+        <v>9.826503281749932</v>
       </c>
       <c r="N6" t="n">
-        <v>10.02108750515007</v>
+        <v>9.826503281749932</v>
       </c>
       <c r="O6" t="n">
-        <v>14.64246281092315</v>
+        <v>14.64246281092441</v>
       </c>
       <c r="P6" t="n">
-        <v>19.45842234009721</v>
+        <v>19.45842234009888</v>
       </c>
       <c r="Q6" t="n">
-        <v>19.45842234009721</v>
+        <v>19.45842234009888</v>
       </c>
       <c r="R6" t="n">
-        <v>14.54467932492115</v>
+        <v>14.54467932492239</v>
       </c>
       <c r="S6" t="n">
-        <v>9.630936309745085</v>
+        <v>9.630936309745909</v>
       </c>
       <c r="T6" t="n">
-        <v>6.057044114763723</v>
+        <v>4.717193294569425</v>
       </c>
       <c r="U6" t="n">
-        <v>6.057044114763723</v>
+        <v>4.717193294569425</v>
       </c>
       <c r="V6" t="n">
-        <v>6.057044114763723</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="W6" t="n">
-        <v>6.057044114763723</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="X6" t="n">
-        <v>6.057044114763723</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.057044114763723</v>
+        <v>0.3891684468019775</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3891684468019443</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="L7" t="n">
-        <v>5.010543752575034</v>
+        <v>5.01054375257546</v>
       </c>
       <c r="M7" t="n">
-        <v>9.826503281749094</v>
+        <v>9.826503281749932</v>
       </c>
       <c r="N7" t="n">
-        <v>14.64246281092315</v>
+        <v>14.64246281092441</v>
       </c>
       <c r="O7" t="n">
-        <v>19.45842234009721</v>
+        <v>19.45842234009888</v>
       </c>
       <c r="P7" t="n">
-        <v>19.45842234009721</v>
+        <v>19.45842234009888</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.45842234009721</v>
+        <v>14.54467932492239</v>
       </c>
       <c r="R7" t="n">
-        <v>19.45842234009721</v>
+        <v>14.54467932492239</v>
       </c>
       <c r="S7" t="n">
-        <v>19.45842234009721</v>
+        <v>9.630936309745909</v>
       </c>
       <c r="T7" t="n">
-        <v>19.45842234009721</v>
+        <v>9.630936309745909</v>
       </c>
       <c r="U7" t="n">
-        <v>15.13039749233014</v>
+        <v>4.717193294569425</v>
       </c>
       <c r="V7" t="n">
-        <v>10.21665447715407</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="W7" t="n">
-        <v>5.30291146197801</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="X7" t="n">
-        <v>5.30291146197801</v>
+        <v>0.3891684468019775</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.30291146197801</v>
+        <v>0.3891684468019775</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.20882949099123</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="C8" t="n">
-        <v>44.20882949099123</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="D8" t="n">
-        <v>44.20882949099123</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="E8" t="n">
-        <v>44.20882949099123</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="F8" t="n">
-        <v>28.75151886964269</v>
+        <v>23.35082806863965</v>
       </c>
       <c r="G8" t="n">
-        <v>13.29420824829416</v>
+        <v>7.893517447291114</v>
       </c>
       <c r="H8" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I8" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J8" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="L8" t="n">
-        <v>31.52363928117821</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M8" t="n">
-        <v>46.6733494211619</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N8" t="n">
-        <v>61.2109500605402</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O8" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S8" t="n">
-        <v>44.20882949099123</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T8" t="n">
-        <v>44.20882949099123</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U8" t="n">
-        <v>44.20882949099123</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V8" t="n">
-        <v>44.20882949099123</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W8" t="n">
-        <v>44.20882949099123</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="X8" t="n">
-        <v>44.20882949099123</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.20882949099123</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G9" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J9" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K9" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="L9" t="n">
         <v>16.37392914119451</v>
-      </c>
-      <c r="L9" t="n">
-        <v>31.52363928117821</v>
       </c>
       <c r="M9" t="n">
         <v>31.52363928117821</v>
       </c>
       <c r="N9" t="n">
-        <v>31.52363928117821</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O9" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P9" t="n">
         <v>61.2109500605402</v>
@@ -4905,28 +4905,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>61.2109500605402</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="S9" t="n">
-        <v>61.2109500605402</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="T9" t="n">
-        <v>61.2109500605402</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="U9" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="V9" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="W9" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X9" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="Y9" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C10" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D10" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E10" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F10" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G10" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H10" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83901819649459</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J10" t="n">
         <v>1.224219001210804</v>
@@ -4966,7 +4966,7 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L10" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M10" t="n">
         <v>30.9115297805728</v>
@@ -4990,22 +4990,22 @@
         <v>30.29632881784312</v>
       </c>
       <c r="T10" t="n">
-        <v>30.29632881784312</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="U10" t="n">
-        <v>30.29632881784312</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="V10" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="W10" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X10" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y10" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1772.599863388185</v>
+        <v>1853.572156897809</v>
       </c>
       <c r="C11" t="n">
-        <v>1451.086979395847</v>
+        <v>1701.220946839006</v>
       </c>
       <c r="D11" t="n">
-        <v>1140.27091373717</v>
+        <v>1390.404881180329</v>
       </c>
       <c r="E11" t="n">
-        <v>801.9322940869989</v>
+        <v>1052.066261530158</v>
       </c>
       <c r="F11" t="n">
-        <v>438.3960222454646</v>
+        <v>688.5299896886239</v>
       </c>
       <c r="G11" t="n">
-        <v>70.77320503853437</v>
+        <v>320.9071724816939</v>
       </c>
       <c r="H11" t="n">
-        <v>70.77320503853437</v>
+        <v>70.77320503853436</v>
       </c>
       <c r="I11" t="n">
-        <v>70.77320503853437</v>
+        <v>70.77320503853436</v>
       </c>
       <c r="J11" t="n">
-        <v>403.3864220345048</v>
+        <v>259.6523359975598</v>
       </c>
       <c r="K11" t="n">
-        <v>737.2057957243512</v>
+        <v>737.2057957243508</v>
       </c>
       <c r="L11" t="n">
-        <v>1188.24000897276</v>
+        <v>1188.240008972759</v>
       </c>
       <c r="M11" t="n">
         <v>1721.771913644684</v>
@@ -5063,28 +5063,28 @@
         <v>3414.583929695663</v>
       </c>
       <c r="R11" t="n">
-        <v>3538.660251926719</v>
+        <v>3538.660251926718</v>
       </c>
       <c r="S11" t="n">
-        <v>3538.660251926719</v>
+        <v>3475.819216401886</v>
       </c>
       <c r="T11" t="n">
-        <v>3538.660251926719</v>
+        <v>3317.291101734182</v>
       </c>
       <c r="U11" t="n">
-        <v>3332.579408148628</v>
+        <v>3111.210257956091</v>
       </c>
       <c r="V11" t="n">
-        <v>3048.966153753131</v>
+        <v>2827.597003560594</v>
       </c>
       <c r="W11" t="n">
-        <v>2743.64713143109</v>
+        <v>2522.277981238553</v>
       </c>
       <c r="X11" t="n">
-        <v>2417.631006118083</v>
+        <v>2196.261855925547</v>
       </c>
       <c r="Y11" t="n">
-        <v>2074.941307090345</v>
+        <v>1853.572156897809</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>945.8049430874597</v>
+        <v>945.8049430874587</v>
       </c>
       <c r="C12" t="n">
-        <v>771.3519138063327</v>
+        <v>771.3519138063317</v>
       </c>
       <c r="D12" t="n">
-        <v>622.4175041450815</v>
+        <v>622.4175041450804</v>
       </c>
       <c r="E12" t="n">
-        <v>463.1800491396259</v>
+        <v>463.1800491396249</v>
       </c>
       <c r="F12" t="n">
-        <v>316.6454911665109</v>
+        <v>316.6454911665099</v>
       </c>
       <c r="G12" t="n">
-        <v>180.2823909991289</v>
+        <v>180.282390999128</v>
       </c>
       <c r="H12" t="n">
-        <v>89.78049663699645</v>
+        <v>89.78049663699555</v>
       </c>
       <c r="I12" t="n">
-        <v>70.77320503853437</v>
+        <v>70.77320503853436</v>
       </c>
       <c r="J12" t="n">
         <v>164.4504745291516</v>
       </c>
       <c r="K12" t="n">
-        <v>402.7146735094988</v>
+        <v>402.7146735094987</v>
       </c>
       <c r="L12" t="n">
         <v>769.412833822164</v>
@@ -5142,28 +5142,28 @@
         <v>2569.314631139691</v>
       </c>
       <c r="R12" t="n">
-        <v>2569.170277732208</v>
+        <v>2569.170277732207</v>
       </c>
       <c r="S12" t="n">
         <v>2439.732391225687</v>
       </c>
       <c r="T12" t="n">
-        <v>2247.089390903543</v>
+        <v>2247.089390903542</v>
       </c>
       <c r="U12" t="n">
-        <v>2019.021544037959</v>
+        <v>2019.021544037958</v>
       </c>
       <c r="V12" t="n">
-        <v>1783.869435806216</v>
+        <v>1783.869435806215</v>
       </c>
       <c r="W12" t="n">
-        <v>1529.632079078014</v>
+        <v>1529.632079078013</v>
       </c>
       <c r="X12" t="n">
-        <v>1321.780578872482</v>
+        <v>1321.780578872481</v>
       </c>
       <c r="Y12" t="n">
-        <v>1114.020280107528</v>
+        <v>1114.020280107527</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.727338411644</v>
+        <v>763.727338411645</v>
       </c>
       <c r="C13" t="n">
-        <v>642.2407884318104</v>
+        <v>642.2407884318113</v>
       </c>
       <c r="D13" t="n">
-        <v>539.573781967548</v>
+        <v>539.5737819675489</v>
       </c>
       <c r="E13" t="n">
-        <v>439.1103213332295</v>
+        <v>439.1103213332292</v>
       </c>
       <c r="F13" t="n">
         <v>339.6700067833924</v>
       </c>
       <c r="G13" t="n">
-        <v>219.4168031061846</v>
+        <v>219.4168031061847</v>
       </c>
       <c r="H13" t="n">
         <v>120.6492492721157</v>
       </c>
       <c r="I13" t="n">
-        <v>70.77320503853437</v>
+        <v>70.77320503853436</v>
       </c>
       <c r="J13" t="n">
-        <v>162.4012227378765</v>
+        <v>162.4012227378767</v>
       </c>
       <c r="K13" t="n">
-        <v>412.8937909391594</v>
+        <v>412.8937909391596</v>
       </c>
       <c r="L13" t="n">
-        <v>775.9589746400619</v>
+        <v>775.9589746400624</v>
       </c>
       <c r="M13" t="n">
-        <v>1166.621405492017</v>
+        <v>1166.621405492018</v>
       </c>
       <c r="N13" t="n">
         <v>1554.535167450289</v>
@@ -5215,16 +5215,16 @@
         <v>1900.370151623109</v>
       </c>
       <c r="P13" t="n">
-        <v>2179.483037309174</v>
+        <v>2179.483037309175</v>
       </c>
       <c r="Q13" t="n">
-        <v>2303.598718714095</v>
+        <v>2303.598718714096</v>
       </c>
       <c r="R13" t="n">
         <v>2261.217894419697</v>
       </c>
       <c r="S13" t="n">
-        <v>2116.981643194596</v>
+        <v>2116.981643194597</v>
       </c>
       <c r="T13" t="n">
         <v>1942.664660712196</v>
@@ -5233,16 +5233,16 @@
         <v>1701.011426785913</v>
       </c>
       <c r="V13" t="n">
-        <v>1493.776571528099</v>
+        <v>1493.7765715281</v>
       </c>
       <c r="W13" t="n">
-        <v>1251.809034439211</v>
+        <v>1251.809034439212</v>
       </c>
       <c r="X13" t="n">
-        <v>1071.269116489267</v>
+        <v>1071.269116489268</v>
       </c>
       <c r="Y13" t="n">
-        <v>897.9261702938104</v>
+        <v>897.9261702938113</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1659.19755898981</v>
+        <v>1514.42194978176</v>
       </c>
       <c r="C14" t="n">
-        <v>1337.684674997472</v>
+        <v>1192.909065789421</v>
       </c>
       <c r="D14" t="n">
-        <v>1026.868609338795</v>
+        <v>882.0930001307443</v>
       </c>
       <c r="E14" t="n">
-        <v>688.529989688624</v>
+        <v>543.7543804805732</v>
       </c>
       <c r="F14" t="n">
-        <v>688.529989688624</v>
+        <v>438.3960222454646</v>
       </c>
       <c r="G14" t="n">
-        <v>320.9071724816939</v>
+        <v>70.77320503853436</v>
       </c>
       <c r="H14" t="n">
-        <v>70.77320503853437</v>
+        <v>70.77320503853436</v>
       </c>
       <c r="I14" t="n">
-        <v>70.77320503853437</v>
+        <v>70.77320503853436</v>
       </c>
       <c r="J14" t="n">
-        <v>427.0579850179128</v>
+        <v>259.6523359975598</v>
       </c>
       <c r="K14" t="n">
-        <v>760.8773587077592</v>
+        <v>593.4717096874061</v>
       </c>
       <c r="L14" t="n">
-        <v>1211.911571956168</v>
+        <v>1044.505922935815</v>
       </c>
       <c r="M14" t="n">
-        <v>1745.443476628092</v>
+        <v>1578.037827607739</v>
       </c>
       <c r="N14" t="n">
-        <v>2292.222293686874</v>
+        <v>2124.816644666521</v>
       </c>
       <c r="O14" t="n">
-        <v>2795.194764566211</v>
+        <v>2627.789115545858</v>
       </c>
       <c r="P14" t="n">
-        <v>3189.969130923389</v>
+        <v>3231.356823614233</v>
       </c>
       <c r="Q14" t="n">
-        <v>3438.255492679071</v>
+        <v>3479.643185369915</v>
       </c>
       <c r="R14" t="n">
-        <v>3538.660251926719</v>
+        <v>3538.660251926718</v>
       </c>
       <c r="S14" t="n">
-        <v>3538.660251926719</v>
+        <v>3475.819216401886</v>
       </c>
       <c r="T14" t="n">
-        <v>3462.066710942232</v>
+        <v>3317.291101734182</v>
       </c>
       <c r="U14" t="n">
-        <v>3255.985867164142</v>
+        <v>3111.210257956091</v>
       </c>
       <c r="V14" t="n">
-        <v>2972.372612768645</v>
+        <v>2827.597003560594</v>
       </c>
       <c r="W14" t="n">
-        <v>2667.053590446604</v>
+        <v>2522.277981238553</v>
       </c>
       <c r="X14" t="n">
-        <v>2341.037465133597</v>
+        <v>2196.261855925547</v>
       </c>
       <c r="Y14" t="n">
-        <v>1998.347766105859</v>
+        <v>1853.572156897808</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>945.8049430874597</v>
+        <v>945.8049430874587</v>
       </c>
       <c r="C15" t="n">
-        <v>771.3519138063327</v>
+        <v>771.3519138063317</v>
       </c>
       <c r="D15" t="n">
-        <v>622.4175041450815</v>
+        <v>622.4175041450804</v>
       </c>
       <c r="E15" t="n">
-        <v>463.1800491396259</v>
+        <v>463.1800491396249</v>
       </c>
       <c r="F15" t="n">
-        <v>316.6454911665109</v>
+        <v>316.6454911665099</v>
       </c>
       <c r="G15" t="n">
-        <v>180.2823909991289</v>
+        <v>180.282390999128</v>
       </c>
       <c r="H15" t="n">
-        <v>89.78049663699645</v>
+        <v>89.78049663699555</v>
       </c>
       <c r="I15" t="n">
-        <v>70.77320503853437</v>
+        <v>70.77320503853436</v>
       </c>
       <c r="J15" t="n">
         <v>164.4504745291516</v>
       </c>
       <c r="K15" t="n">
-        <v>402.7146735094988</v>
+        <v>402.7146735094987</v>
       </c>
       <c r="L15" t="n">
         <v>769.412833822164</v>
@@ -5379,28 +5379,28 @@
         <v>2569.314631139691</v>
       </c>
       <c r="R15" t="n">
-        <v>2569.170277732208</v>
+        <v>2569.170277732207</v>
       </c>
       <c r="S15" t="n">
         <v>2439.732391225687</v>
       </c>
       <c r="T15" t="n">
-        <v>2247.089390903543</v>
+        <v>2247.089390903542</v>
       </c>
       <c r="U15" t="n">
-        <v>2019.021544037959</v>
+        <v>2019.021544037958</v>
       </c>
       <c r="V15" t="n">
-        <v>1783.869435806216</v>
+        <v>1783.869435806215</v>
       </c>
       <c r="W15" t="n">
-        <v>1529.632079078014</v>
+        <v>1529.632079078013</v>
       </c>
       <c r="X15" t="n">
-        <v>1321.780578872482</v>
+        <v>1321.780578872481</v>
       </c>
       <c r="Y15" t="n">
-        <v>1114.020280107528</v>
+        <v>1114.020280107527</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7273384116445</v>
+        <v>763.7273384116452</v>
       </c>
       <c r="C16" t="n">
-        <v>642.2407884318109</v>
+        <v>642.2407884318116</v>
       </c>
       <c r="D16" t="n">
-        <v>539.5737819675485</v>
+        <v>539.5737819675492</v>
       </c>
       <c r="E16" t="n">
-        <v>439.1103213332287</v>
+        <v>439.1103213332293</v>
       </c>
       <c r="F16" t="n">
-        <v>339.6700067833917</v>
+        <v>339.6700067833922</v>
       </c>
       <c r="G16" t="n">
-        <v>219.416803106184</v>
+        <v>219.4168031061845</v>
       </c>
       <c r="H16" t="n">
         <v>120.6492492721157</v>
       </c>
       <c r="I16" t="n">
-        <v>70.77320503853437</v>
+        <v>70.77320503853436</v>
       </c>
       <c r="J16" t="n">
-        <v>162.4012227378766</v>
+        <v>162.4012227378767</v>
       </c>
       <c r="K16" t="n">
-        <v>412.8937909391593</v>
+        <v>412.8937909391596</v>
       </c>
       <c r="L16" t="n">
         <v>775.9589746400623</v>
@@ -5458,19 +5458,19 @@
         <v>2303.598718714096</v>
       </c>
       <c r="R16" t="n">
-        <v>2261.217894419697</v>
+        <v>2261.217894419698</v>
       </c>
       <c r="S16" t="n">
         <v>2116.981643194597</v>
       </c>
       <c r="T16" t="n">
-        <v>1942.664660712196</v>
+        <v>1942.664660712197</v>
       </c>
       <c r="U16" t="n">
         <v>1701.011426785913</v>
       </c>
       <c r="V16" t="n">
-        <v>1493.776571528099</v>
+        <v>1493.7765715281</v>
       </c>
       <c r="W16" t="n">
         <v>1251.809034439212</v>
@@ -5479,7 +5479,7 @@
         <v>1071.269116489268</v>
       </c>
       <c r="Y16" t="n">
-        <v>897.9261702938109</v>
+        <v>897.9261702938115</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022.733830831345</v>
+        <v>1514.42194978176</v>
       </c>
       <c r="C17" t="n">
-        <v>1701.220946839007</v>
+        <v>1451.086979395847</v>
       </c>
       <c r="D17" t="n">
-        <v>1390.40488118033</v>
+        <v>1140.27091373717</v>
       </c>
       <c r="E17" t="n">
-        <v>1052.066261530158</v>
+        <v>801.9322940869989</v>
       </c>
       <c r="F17" t="n">
-        <v>688.5299896886243</v>
+        <v>438.3960222454646</v>
       </c>
       <c r="G17" t="n">
-        <v>320.9071724816939</v>
+        <v>70.77320503853436</v>
       </c>
       <c r="H17" t="n">
-        <v>70.77320503853437</v>
+        <v>70.77320503853436</v>
       </c>
       <c r="I17" t="n">
-        <v>70.77320503853437</v>
+        <v>70.77320503853436</v>
       </c>
       <c r="J17" t="n">
-        <v>403.3864220345048</v>
+        <v>259.6523359975598</v>
       </c>
       <c r="K17" t="n">
-        <v>737.2057957243512</v>
+        <v>593.4717096874061</v>
       </c>
       <c r="L17" t="n">
-        <v>1188.24000897276</v>
+        <v>1044.505922935815</v>
       </c>
       <c r="M17" t="n">
-        <v>1721.771913644684</v>
+        <v>1578.037827607739</v>
       </c>
       <c r="N17" t="n">
-        <v>2268.550730703466</v>
+        <v>2124.816644666521</v>
       </c>
       <c r="O17" t="n">
-        <v>2771.523201582803</v>
+        <v>2836.582457257055</v>
       </c>
       <c r="P17" t="n">
-        <v>3166.297567939981</v>
+        <v>3231.356823614233</v>
       </c>
       <c r="Q17" t="n">
-        <v>3414.583929695663</v>
+        <v>3479.643185369915</v>
       </c>
       <c r="R17" t="n">
-        <v>3538.660251926719</v>
+        <v>3538.660251926718</v>
       </c>
       <c r="S17" t="n">
-        <v>3538.660251926719</v>
+        <v>3475.819216401886</v>
       </c>
       <c r="T17" t="n">
-        <v>3380.132137259014</v>
+        <v>3317.291101734182</v>
       </c>
       <c r="U17" t="n">
-        <v>3174.051293480924</v>
+        <v>3111.210257956091</v>
       </c>
       <c r="V17" t="n">
-        <v>3174.051293480924</v>
+        <v>2827.597003560594</v>
       </c>
       <c r="W17" t="n">
-        <v>2868.732271158883</v>
+        <v>2522.277981238553</v>
       </c>
       <c r="X17" t="n">
-        <v>2542.716145845876</v>
+        <v>2196.261855925547</v>
       </c>
       <c r="Y17" t="n">
-        <v>2361.884037947394</v>
+        <v>1853.572156897809</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>945.8049430874597</v>
+        <v>945.8049430874587</v>
       </c>
       <c r="C18" t="n">
-        <v>771.3519138063327</v>
+        <v>771.3519138063317</v>
       </c>
       <c r="D18" t="n">
-        <v>622.4175041450815</v>
+        <v>622.4175041450804</v>
       </c>
       <c r="E18" t="n">
-        <v>463.1800491396259</v>
+        <v>463.1800491396249</v>
       </c>
       <c r="F18" t="n">
-        <v>316.6454911665109</v>
+        <v>316.6454911665099</v>
       </c>
       <c r="G18" t="n">
-        <v>180.2823909991289</v>
+        <v>180.282390999128</v>
       </c>
       <c r="H18" t="n">
-        <v>89.78049663699645</v>
+        <v>89.78049663699555</v>
       </c>
       <c r="I18" t="n">
-        <v>70.77320503853437</v>
+        <v>70.77320503853436</v>
       </c>
       <c r="J18" t="n">
         <v>164.4504745291516</v>
       </c>
       <c r="K18" t="n">
-        <v>402.7146735094988</v>
+        <v>402.7146735094987</v>
       </c>
       <c r="L18" t="n">
         <v>769.412833822164</v>
@@ -5616,28 +5616,28 @@
         <v>2569.314631139691</v>
       </c>
       <c r="R18" t="n">
-        <v>2569.170277732208</v>
+        <v>2569.170277732207</v>
       </c>
       <c r="S18" t="n">
         <v>2439.732391225687</v>
       </c>
       <c r="T18" t="n">
-        <v>2247.089390903543</v>
+        <v>2247.089390903542</v>
       </c>
       <c r="U18" t="n">
-        <v>2019.021544037959</v>
+        <v>2019.021544037958</v>
       </c>
       <c r="V18" t="n">
-        <v>1783.869435806216</v>
+        <v>1783.869435806215</v>
       </c>
       <c r="W18" t="n">
-        <v>1529.632079078014</v>
+        <v>1529.632079078013</v>
       </c>
       <c r="X18" t="n">
-        <v>1321.780578872482</v>
+        <v>1321.780578872481</v>
       </c>
       <c r="Y18" t="n">
-        <v>1114.020280107528</v>
+        <v>1114.020280107527</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7273384116451</v>
+        <v>763.7273384116456</v>
       </c>
       <c r="C19" t="n">
-        <v>642.2407884318114</v>
+        <v>642.240788431812</v>
       </c>
       <c r="D19" t="n">
-        <v>539.5737819675489</v>
+        <v>539.5737819675496</v>
       </c>
       <c r="E19" t="n">
-        <v>439.1103213332292</v>
+        <v>439.1103213332295</v>
       </c>
       <c r="F19" t="n">
-        <v>339.6700067833922</v>
+        <v>339.6700067833924</v>
       </c>
       <c r="G19" t="n">
-        <v>219.4168031061845</v>
+        <v>219.4168031061847</v>
       </c>
       <c r="H19" t="n">
-        <v>120.6492492721158</v>
+        <v>120.6492492721157</v>
       </c>
       <c r="I19" t="n">
-        <v>70.77320503853437</v>
+        <v>70.77320503853436</v>
       </c>
       <c r="J19" t="n">
-        <v>162.4012227378765</v>
+        <v>162.4012227378767</v>
       </c>
       <c r="K19" t="n">
-        <v>412.8937909391595</v>
+        <v>412.8937909391596</v>
       </c>
       <c r="L19" t="n">
-        <v>775.9589746400623</v>
+        <v>775.9589746400624</v>
       </c>
       <c r="M19" t="n">
         <v>1166.621405492018</v>
@@ -5710,13 +5710,13 @@
         <v>1493.7765715281</v>
       </c>
       <c r="W19" t="n">
-        <v>1251.809034439212</v>
+        <v>1251.809034439213</v>
       </c>
       <c r="X19" t="n">
-        <v>1071.269116489268</v>
+        <v>1071.269116489269</v>
       </c>
       <c r="Y19" t="n">
-        <v>897.9261702938115</v>
+        <v>897.926170293812</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1684.395211181175</v>
+        <v>1840.438075094767</v>
       </c>
       <c r="C20" t="n">
-        <v>1362.882327188836</v>
+        <v>1518.925191102428</v>
       </c>
       <c r="D20" t="n">
-        <v>1052.066261530158</v>
+        <v>1208.109125443751</v>
       </c>
       <c r="E20" t="n">
-        <v>1052.066261530158</v>
+        <v>869.77050579358</v>
       </c>
       <c r="F20" t="n">
-        <v>688.5299896886243</v>
+        <v>506.2342339520458</v>
       </c>
       <c r="G20" t="n">
-        <v>320.907172481694</v>
+        <v>320.9071724816939</v>
       </c>
       <c r="H20" t="n">
-        <v>70.77320503853437</v>
+        <v>70.77320503853436</v>
       </c>
       <c r="I20" t="n">
-        <v>70.77320503853437</v>
+        <v>70.77320503853436</v>
       </c>
       <c r="J20" t="n">
-        <v>427.0579850179128</v>
+        <v>259.6523359975598</v>
       </c>
       <c r="K20" t="n">
-        <v>760.8773587077592</v>
+        <v>737.2057957243496</v>
       </c>
       <c r="L20" t="n">
-        <v>1211.911571956168</v>
+        <v>1188.240008972758</v>
       </c>
       <c r="M20" t="n">
-        <v>1745.443476628092</v>
+        <v>1721.771913644683</v>
       </c>
       <c r="N20" t="n">
-        <v>2292.222293686874</v>
+        <v>2268.550730703465</v>
       </c>
       <c r="O20" t="n">
-        <v>2795.194764566211</v>
+        <v>2771.523201582802</v>
       </c>
       <c r="P20" t="n">
-        <v>3189.969130923389</v>
+        <v>3166.297567939981</v>
       </c>
       <c r="Q20" t="n">
-        <v>3438.255492679071</v>
+        <v>3414.583929695663</v>
       </c>
       <c r="R20" t="n">
-        <v>3538.660251926719</v>
+        <v>3538.660251926718</v>
       </c>
       <c r="S20" t="n">
-        <v>3475.819216401887</v>
+        <v>3475.819216401886</v>
       </c>
       <c r="T20" t="n">
         <v>3317.291101734182</v>
       </c>
       <c r="U20" t="n">
-        <v>3281.183519355506</v>
+        <v>3111.210257956091</v>
       </c>
       <c r="V20" t="n">
-        <v>2997.570264960009</v>
+        <v>2827.597003560594</v>
       </c>
       <c r="W20" t="n">
-        <v>2692.251242637968</v>
+        <v>2522.277981238553</v>
       </c>
       <c r="X20" t="n">
-        <v>2366.235117324961</v>
+        <v>2522.277981238553</v>
       </c>
       <c r="Y20" t="n">
-        <v>2023.545418297223</v>
+        <v>2179.588282210815</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>945.8049430874597</v>
+        <v>945.8049430874594</v>
       </c>
       <c r="C21" t="n">
-        <v>771.3519138063327</v>
+        <v>771.3519138063324</v>
       </c>
       <c r="D21" t="n">
-        <v>622.4175041450815</v>
+        <v>622.4175041450812</v>
       </c>
       <c r="E21" t="n">
-        <v>463.1800491396259</v>
+        <v>463.1800491396257</v>
       </c>
       <c r="F21" t="n">
-        <v>316.6454911665109</v>
+        <v>316.6454911665107</v>
       </c>
       <c r="G21" t="n">
-        <v>180.2823909991289</v>
+        <v>180.2823909991291</v>
       </c>
       <c r="H21" t="n">
-        <v>89.78049663699645</v>
+        <v>89.78049663699676</v>
       </c>
       <c r="I21" t="n">
-        <v>70.77320503853437</v>
+        <v>70.77320503853436</v>
       </c>
       <c r="J21" t="n">
-        <v>164.4504745291523</v>
+        <v>164.4504745291515</v>
       </c>
       <c r="K21" t="n">
-        <v>402.7146735094994</v>
+        <v>402.7146735094986</v>
       </c>
       <c r="L21" t="n">
-        <v>769.4128338221647</v>
+        <v>769.412833822164</v>
       </c>
       <c r="M21" t="n">
         <v>1216.68915904448</v>
       </c>
       <c r="N21" t="n">
-        <v>1690.212202598935</v>
+        <v>1690.212202598934</v>
       </c>
       <c r="O21" t="n">
         <v>2101.17348201699</v>
@@ -5871,10 +5871,10 @@
         <v>1529.632079078014</v>
       </c>
       <c r="X21" t="n">
-        <v>1321.780578872482</v>
+        <v>1321.780578872481</v>
       </c>
       <c r="Y21" t="n">
-        <v>1114.020280107528</v>
+        <v>1114.020280107527</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7273384116454</v>
+        <v>763.7273384116452</v>
       </c>
       <c r="C22" t="n">
-        <v>642.2407884318118</v>
+        <v>642.2407884318116</v>
       </c>
       <c r="D22" t="n">
-        <v>539.5737819675494</v>
+        <v>539.5737819675491</v>
       </c>
       <c r="E22" t="n">
-        <v>439.1103213332295</v>
+        <v>439.1103213332293</v>
       </c>
       <c r="F22" t="n">
-        <v>339.6700067833925</v>
+        <v>339.6700067833922</v>
       </c>
       <c r="G22" t="n">
-        <v>219.4168031061847</v>
+        <v>219.4168031061846</v>
       </c>
       <c r="H22" t="n">
-        <v>120.6492492721158</v>
+        <v>120.6492492721157</v>
       </c>
       <c r="I22" t="n">
-        <v>70.77320503853437</v>
+        <v>70.77320503853436</v>
       </c>
       <c r="J22" t="n">
-        <v>162.4012227378765</v>
+        <v>162.4012227378767</v>
       </c>
       <c r="K22" t="n">
-        <v>412.8937909391595</v>
+        <v>412.8937909391599</v>
       </c>
       <c r="L22" t="n">
-        <v>775.9589746400623</v>
+        <v>775.9589746400627</v>
       </c>
       <c r="M22" t="n">
         <v>1166.621405492018</v>
@@ -5923,13 +5923,13 @@
         <v>1554.535167450289</v>
       </c>
       <c r="O22" t="n">
-        <v>1900.370151623109</v>
+        <v>1900.37015162311</v>
       </c>
       <c r="P22" t="n">
         <v>2179.483037309175</v>
       </c>
       <c r="Q22" t="n">
-        <v>2303.598718714096</v>
+        <v>2303.598718714097</v>
       </c>
       <c r="R22" t="n">
         <v>2261.217894419698</v>
@@ -5947,13 +5947,13 @@
         <v>1493.7765715281</v>
       </c>
       <c r="W22" t="n">
-        <v>1251.809034439213</v>
+        <v>1251.809034439212</v>
       </c>
       <c r="X22" t="n">
-        <v>1071.269116489269</v>
+        <v>1071.269116489268</v>
       </c>
       <c r="Y22" t="n">
-        <v>897.9261702938118</v>
+        <v>897.9261702938115</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C23" t="n">
         <v>1711.594658697162</v>
@@ -5972,10 +5972,10 @@
         <v>1400.778593038485</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467802</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
@@ -5987,25 +5987,25 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J23" t="n">
-        <v>282.5873354070228</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K23" t="n">
-        <v>937.3106675423223</v>
+        <v>727.1188267890177</v>
       </c>
       <c r="L23" t="n">
-        <v>1388.344880790731</v>
+        <v>1178.153040037426</v>
       </c>
       <c r="M23" t="n">
-        <v>1921.876785462656</v>
+        <v>1711.684944709351</v>
       </c>
       <c r="N23" t="n">
-        <v>2468.655602521438</v>
+        <v>2258.463761768133</v>
       </c>
       <c r="O23" t="n">
-        <v>2971.628073400775</v>
+        <v>2761.43623264747</v>
       </c>
       <c r="P23" t="n">
-        <v>3684.983160847721</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q23" t="n">
         <v>3933.269522603403</v>
@@ -6020,10 +6020,10 @@
         <v>3835.976694641923</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W23" t="n">
         <v>3040.963574146294</v>
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1786549456133</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C24" t="n">
-        <v>781.7256256644863</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D24" t="n">
-        <v>632.7912160032351</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E24" t="n">
-        <v>473.5537609977796</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F24" t="n">
-        <v>327.0192030246646</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G24" t="n">
-        <v>190.6561028572835</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1542084951511</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I24" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676532</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L24" t="n">
         <v>779.7865456803188</v>
@@ -6081,7 +6081,7 @@
         <v>1700.585914457089</v>
       </c>
       <c r="O24" t="n">
-        <v>2111.547193875143</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P24" t="n">
         <v>2422.046785351246</v>
@@ -6111,7 +6111,7 @@
         <v>1332.154290730635</v>
       </c>
       <c r="Y24" t="n">
-        <v>1124.393991965681</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D25" t="n">
         <v>549.9474938257041</v>
@@ -6145,7 +6145,7 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
         <v>423.2675027973143</v>
@@ -6203,7 +6203,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6212,10 +6212,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6230,22 +6230,22 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814247</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542187</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6257,13 +6257,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6327,28 +6327,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>242.4509819463048</v>
+        <v>412.4103109586947</v>
       </c>
       <c r="C28" t="n">
-        <v>242.4509819463048</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D28" t="n">
-        <v>242.4509819463048</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6382,13 +6382,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501055</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838516</v>
+        <v>861.1924410002422</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858343</v>
+        <v>633.2028901022248</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423038</v>
+        <v>412.4103109586947</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001592</v>
@@ -6461,28 +6461,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483405</v>
+        <v>2782.232616025902</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542187</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3831.983903964021</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6564,28 +6564,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>726.3303343661178</v>
+        <v>431.9845838435962</v>
       </c>
       <c r="C31" t="n">
-        <v>557.3941514382108</v>
+        <v>431.9845838435962</v>
       </c>
       <c r="D31" t="n">
-        <v>557.3941514382108</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E31" t="n">
-        <v>409.4810578558177</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501055</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208122</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W31" t="n">
-        <v>999.1036114208122</v>
+        <v>841.6225995718532</v>
       </c>
       <c r="X31" t="n">
-        <v>771.1140605227948</v>
+        <v>613.6330486738359</v>
       </c>
       <c r="Y31" t="n">
-        <v>771.1140605227948</v>
+        <v>613.6330486738359</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2354.286483458284</v>
+        <v>2354.286483458285</v>
       </c>
       <c r="C32" t="n">
-        <v>1988.051798328941</v>
+        <v>1988.051798328942</v>
       </c>
       <c r="D32" t="n">
-        <v>1632.513931533259</v>
+        <v>1632.51393153326</v>
       </c>
       <c r="E32" t="n">
-        <v>1249.453510746084</v>
+        <v>1249.453510746085</v>
       </c>
       <c r="F32" t="n">
-        <v>841.1954377675456</v>
+        <v>841.1954377675462</v>
       </c>
       <c r="G32" t="n">
-        <v>428.8508194236118</v>
+        <v>428.8508194236121</v>
       </c>
       <c r="H32" t="n">
-        <v>133.9950508434479</v>
+        <v>133.995050843448</v>
       </c>
       <c r="I32" t="n">
-        <v>94.72598389398554</v>
+        <v>94.7259838939856</v>
       </c>
       <c r="J32" t="n">
-        <v>451.0107638733639</v>
+        <v>283.605114853011</v>
       </c>
       <c r="K32" t="n">
-        <v>1105.734096008663</v>
+        <v>617.4244885428574</v>
       </c>
       <c r="L32" t="n">
-        <v>1857.106389902245</v>
+        <v>1068.458701791266</v>
       </c>
       <c r="M32" t="n">
-        <v>2390.638294574169</v>
+        <v>2047.009004621094</v>
       </c>
       <c r="N32" t="n">
-        <v>2937.417111632951</v>
+        <v>2937.417111632954</v>
       </c>
       <c r="O32" t="n">
-        <v>3440.389582512288</v>
+        <v>3440.389582512291</v>
       </c>
       <c r="P32" t="n">
-        <v>4153.744669959234</v>
+        <v>4153.744669959236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4612.222872468222</v>
+        <v>4612.222872468225</v>
       </c>
       <c r="R32" t="n">
-        <v>4736.299194699277</v>
+        <v>4736.29919469928</v>
       </c>
       <c r="S32" t="n">
-        <v>4628.73635803744</v>
+        <v>4628.736358037443</v>
       </c>
       <c r="T32" t="n">
-        <v>4425.486442232731</v>
+        <v>4425.486442232734</v>
       </c>
       <c r="U32" t="n">
-        <v>4174.683797317637</v>
+        <v>4174.683797317639</v>
       </c>
       <c r="V32" t="n">
-        <v>3846.348741785136</v>
+        <v>3846.348741785137</v>
       </c>
       <c r="W32" t="n">
-        <v>3496.30791832609</v>
+        <v>3496.307918326092</v>
       </c>
       <c r="X32" t="n">
-        <v>3125.569991876079</v>
+        <v>3125.569991876081</v>
       </c>
       <c r="Y32" t="n">
-        <v>2738.158491711337</v>
+        <v>2738.158491711338</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>969.7577219429107</v>
+        <v>969.7577219429102</v>
       </c>
       <c r="C33" t="n">
-        <v>795.3046926617837</v>
+        <v>795.3046926617832</v>
       </c>
       <c r="D33" t="n">
-        <v>646.3702830005325</v>
+        <v>646.3702830005319</v>
       </c>
       <c r="E33" t="n">
-        <v>487.132827995077</v>
+        <v>487.1328279950764</v>
       </c>
       <c r="F33" t="n">
-        <v>340.598270021962</v>
+        <v>340.5982700219614</v>
       </c>
       <c r="G33" t="n">
-        <v>204.2351698545801</v>
+        <v>204.2351698545795</v>
       </c>
       <c r="H33" t="n">
-        <v>113.7332754924476</v>
+        <v>113.733275492447</v>
       </c>
       <c r="I33" t="n">
-        <v>94.72598389398554</v>
+        <v>94.7259838939856</v>
       </c>
       <c r="J33" t="n">
-        <v>188.4032533846028</v>
+        <v>188.4032533846029</v>
       </c>
       <c r="K33" t="n">
-        <v>426.6674523649499</v>
+        <v>426.66745236495</v>
       </c>
       <c r="L33" t="n">
         <v>793.3656126776152</v>
@@ -6801,7 +6801,7 @@
         <v>2593.267409995143</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.123056587659</v>
+        <v>2593.123056587658</v>
       </c>
       <c r="S33" t="n">
         <v>2463.685170081138</v>
@@ -6810,7 +6810,7 @@
         <v>2271.042169758994</v>
       </c>
       <c r="U33" t="n">
-        <v>2042.97432289341</v>
+        <v>2042.974322893409</v>
       </c>
       <c r="V33" t="n">
         <v>1807.822214661667</v>
@@ -6819,10 +6819,10 @@
         <v>1553.584857933465</v>
       </c>
       <c r="X33" t="n">
-        <v>1345.733357727933</v>
+        <v>1345.733357727932</v>
       </c>
       <c r="Y33" t="n">
-        <v>1137.973058962979</v>
+        <v>1137.973058962978</v>
       </c>
     </row>
     <row r="34">
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.72598389398554</v>
+        <v>539.9430273617247</v>
       </c>
       <c r="C34" t="n">
-        <v>94.72598389398554</v>
+        <v>373.7346762448867</v>
       </c>
       <c r="D34" t="n">
-        <v>94.72598389398554</v>
+        <v>373.7346762448867</v>
       </c>
       <c r="E34" t="n">
-        <v>94.72598389398554</v>
+        <v>228.5494144735624</v>
       </c>
       <c r="F34" t="n">
-        <v>94.72598389398554</v>
+        <v>228.5494144735624</v>
       </c>
       <c r="G34" t="n">
-        <v>94.72598389398554</v>
+        <v>94.7259838939856</v>
       </c>
       <c r="H34" t="n">
-        <v>94.72598389398554</v>
+        <v>94.7259838939856</v>
       </c>
       <c r="I34" t="n">
-        <v>94.72598389398554</v>
+        <v>94.7259838939856</v>
       </c>
       <c r="J34" t="n">
-        <v>142.5221642989498</v>
+        <v>142.5221642989497</v>
       </c>
       <c r="K34" t="n">
-        <v>349.1828952058548</v>
+        <v>349.1828952058546</v>
       </c>
       <c r="L34" t="n">
-        <v>668.4162416123795</v>
+        <v>668.4162416123793</v>
       </c>
       <c r="M34" t="n">
         <v>1015.246835169957</v>
@@ -6880,28 +6880,28 @@
         <v>1976.896799214523</v>
       </c>
       <c r="R34" t="n">
-        <v>1949.990948998073</v>
+        <v>1889.79417378312</v>
       </c>
       <c r="S34" t="n">
-        <v>1761.032896635968</v>
+        <v>1700.836121421015</v>
       </c>
       <c r="T34" t="n">
-        <v>1541.994113016563</v>
+        <v>1700.836121421015</v>
       </c>
       <c r="U34" t="n">
-        <v>1255.619077953276</v>
+        <v>1700.836121421015</v>
       </c>
       <c r="V34" t="n">
-        <v>1003.662421558458</v>
+        <v>1448.879465026197</v>
       </c>
       <c r="W34" t="n">
-        <v>716.9730833325659</v>
+        <v>1162.190126800305</v>
       </c>
       <c r="X34" t="n">
-        <v>491.7113642456174</v>
+        <v>936.9284077133568</v>
       </c>
       <c r="Y34" t="n">
-        <v>273.6466169131563</v>
+        <v>718.8636603808956</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
         <v>81.14691689668915</v>
@@ -6935,28 +6935,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K35" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M35" t="n">
-        <v>2200.835586644151</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N35" t="n">
-        <v>2747.614403702933</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O35" t="n">
-        <v>3250.58687458227</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P35" t="n">
-        <v>3645.361240939448</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834458</v>
@@ -6971,13 +6971,13 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W35" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
         <v>2372.257749805548</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D36" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E36" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F36" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I36" t="n">
         <v>81.14691689668915</v>
@@ -7038,25 +7038,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R36" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S36" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T36" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U36" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V36" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W36" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X36" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y36" t="n">
         <v>1124.393991965682</v>
@@ -7078,13 +7078,13 @@
         <v>549.947493825704</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
@@ -7093,34 +7093,34 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982166</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
         <v>1953.038372570351</v>
@@ -7129,7 +7129,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297367</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K38" t="n">
-        <v>1045.699547878786</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L38" t="n">
-        <v>1496.733761127194</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M38" t="n">
-        <v>2030.265665799119</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N38" t="n">
-        <v>2577.044482857901</v>
+        <v>2548.674958929621</v>
       </c>
       <c r="O38" t="n">
-        <v>3080.016953737238</v>
+        <v>3051.647429808958</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D39" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F39" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873064</v>
@@ -7275,25 +7275,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R39" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S39" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T39" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U39" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V39" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W39" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X39" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y39" t="n">
         <v>1124.393991965682</v>
@@ -7306,67 +7306,67 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415466</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
         <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
         <v>1262.182746297367</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7388,73 +7388,73 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467795</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K41" t="n">
-        <v>603.845421545561</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.87963479397</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M41" t="n">
-        <v>1872.543307058813</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N41" t="n">
-        <v>2852.295579285459</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164796</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D42" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F42" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873064</v>
@@ -7512,25 +7512,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R42" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S42" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T42" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U42" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V42" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W42" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X42" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y42" t="n">
         <v>1124.393991965682</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E43" t="n">
         <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G43" t="n">
         <v>229.7905149643394</v>
@@ -7564,7 +7564,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
         <v>172.7749345960314</v>
@@ -7573,10 +7573,10 @@
         <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
         <v>270.0260478557145</v>
@@ -7652,43 +7652,43 @@
         <v>603.8454215455608</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.879634793969</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M44" t="n">
-        <v>2033.429937623798</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N44" t="n">
-        <v>2852.295579285459</v>
+        <v>2548.674958929621</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164796</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P44" t="n">
         <v>3750.042416521973</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D45" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F45" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873064</v>
@@ -7749,25 +7749,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R45" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S45" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T45" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U45" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V45" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W45" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X45" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y45" t="n">
         <v>1124.393991965682</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>240.631020555012</v>
       </c>
       <c r="M2" t="n">
-        <v>235.01428909169</v>
+        <v>235.2108388122975</v>
       </c>
       <c r="N2" t="n">
-        <v>234.2776691816152</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>234.962817006711</v>
+        <v>234.7662672861044</v>
       </c>
       <c r="P2" t="n">
-        <v>236.0976013402938</v>
+        <v>236.0976013402943</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,19 +8064,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>146.998639507043</v>
       </c>
       <c r="N3" t="n">
-        <v>136.0097679477506</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>147.4608500294687</v>
+        <v>147.2643003088621</v>
       </c>
       <c r="P3" t="n">
-        <v>138.8390129993545</v>
+        <v>138.839012999355</v>
       </c>
       <c r="Q3" t="n">
-        <v>144.8463796710458</v>
+        <v>144.8463796710462</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,16 +8140,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>139.7492818662626</v>
+        <v>139.749281866263</v>
       </c>
       <c r="M4" t="n">
-        <v>143.7903895326293</v>
+        <v>143.7903895326298</v>
       </c>
       <c r="N4" t="n">
-        <v>132.3536003296504</v>
+        <v>132.3536003296508</v>
       </c>
       <c r="O4" t="n">
-        <v>143.3211440368671</v>
+        <v>143.3211440368675</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>224.9544566300048</v>
+        <v>224.9544566300053</v>
       </c>
       <c r="L5" t="n">
-        <v>240.4344708344045</v>
+        <v>240.631020555012</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>235.0142890916904</v>
       </c>
       <c r="N5" t="n">
-        <v>234.2776691816152</v>
+        <v>234.2776691816156</v>
       </c>
       <c r="O5" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>236.0976013402938</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>142.7060445593833</v>
+        <v>142.5094948387766</v>
       </c>
       <c r="L6" t="n">
-        <v>143.4189853648985</v>
+        <v>143.4189853648989</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
@@ -8307,10 +8307,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>147.2643003088617</v>
+        <v>147.4608500294692</v>
       </c>
       <c r="P6" t="n">
-        <v>138.8390129993545</v>
+        <v>138.839012999355</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8377,16 +8377,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>139.5527321456555</v>
+        <v>139.5527321456559</v>
       </c>
       <c r="M7" t="n">
-        <v>143.7903895326293</v>
+        <v>143.7903895326298</v>
       </c>
       <c r="N7" t="n">
-        <v>132.5501500502575</v>
+        <v>132.5501500502579</v>
       </c>
       <c r="O7" t="n">
-        <v>143.3211440368671</v>
+        <v>143.3211440368675</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>235.3925885601156</v>
+        <v>234.7742961352617</v>
       </c>
       <c r="L8" t="n">
-        <v>251.0691524851223</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
         <v>245.6489707424078</v>
       </c>
       <c r="N8" t="n">
-        <v>244.097508686872</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>153.144176489494</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>153.8571172950092</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>146.6444495984684</v>
       </c>
       <c r="O9" t="n">
         <v>157.2806895347256</v>
       </c>
       <c r="P9" t="n">
-        <v>149.2771449294653</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8614,10 +8614,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>149.5691213715194</v>
+        <v>150.1874137963733</v>
       </c>
       <c r="M10" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N10" t="n">
         <v>142.9882819803682</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>145.1859454918637</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>145.1859454918633</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8.633094239485217e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>210.9023653648459</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>41.80575019277295</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8.633094239485217e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>145.1859454918637</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>210.9023653648462</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>8.633094239485217e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>145.185945491862</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>41.80575019277295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>12.68816924374568</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>124.5185911550068</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>8.633094239485217e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9878,25 +9878,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>57.67224444723826</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>34.13957882094093</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>303.3717986314877</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>347.1002928818964</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.592992652874273e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>190.2350110279887</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>40.02214132148694</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>277.2206841544158</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>306.6874953089259</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,16 +11060,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>287.0017854473926</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>400.2032972882113</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,16 +11300,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>274.8351763665443</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>306.6874953089261</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.011440156687133</v>
+        <v>2.011440156686717</v>
       </c>
       <c r="G2" t="n">
-        <v>10.43813193011075</v>
+        <v>10.43813193011033</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22793,10 +22793,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.011440156687133</v>
+        <v>2.011440156686717</v>
       </c>
       <c r="G5" t="n">
-        <v>10.43813193011075</v>
+        <v>10.43813193011033</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.4406757797499</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>167.4700571942019</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958332</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231188</v>
+        <v>255.5961344703611</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>81.11522794638643</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>255.5961344703616</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958332</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>160.2390152179636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23975,13 +23975,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>180.4727981792124</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>168.2735287854205</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.5631840798983</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>238.9230922902738</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>135.4960912868271</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>58.34254217336994</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>164.5462676056696</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>145.9149195252541</v>
+        <v>145.9149195252542</v>
       </c>
       <c r="E34" t="n">
-        <v>143.7334091536109</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>142.720494529973</v>
+        <v>142.7204945299731</v>
       </c>
       <c r="G34" t="n">
-        <v>163.3252547660699</v>
+        <v>30.840058492289</v>
       </c>
       <c r="H34" t="n">
-        <v>142.0544614213625</v>
+        <v>142.0544614213626</v>
       </c>
       <c r="I34" t="n">
-        <v>93.65186691687984</v>
+        <v>93.65186691687995</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>59.59480746280275</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>216.848395783211</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>283.5112847126547</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>849842.0341811008</v>
+        <v>849842.0341811011</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>849842.0341811008</v>
+        <v>849842.0341811011</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755320.8381076982</v>
+        <v>755320.8381076981</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755320.8381076984</v>
+        <v>755320.8381076982</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755320.8381076982</v>
+        <v>755320.8381076981</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>806657.8540402915</v>
+        <v>806657.8540402916</v>
       </c>
     </row>
     <row r="10">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656040.6271409392</v>
+        <v>656040.6271409395</v>
       </c>
       <c r="C2" t="n">
-        <v>656040.6271409394</v>
+        <v>656040.6271409397</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>624787.8083120412</v>
+        <v>624787.8083120413</v>
       </c>
       <c r="F2" t="n">
         <v>624787.8083120412</v>
       </c>
       <c r="G2" t="n">
-        <v>624787.8083120412</v>
+        <v>624787.8083120415</v>
       </c>
       <c r="H2" t="n">
-        <v>624787.8083120418</v>
+        <v>624787.8083120415</v>
       </c>
       <c r="I2" t="n">
-        <v>656833.4158914259</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="J2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.8590191727</v>
       </c>
       <c r="K2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.859019173</v>
       </c>
       <c r="L2" t="n">
-        <v>636567.0194488993</v>
+        <v>636567.0194488997</v>
       </c>
       <c r="M2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="N2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="O2" t="n">
         <v>656833.4158914265</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1630.2412174701</v>
+        <v>1630.241217470239</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3242.396921450301</v>
+        <v>3242.396921450172</v>
       </c>
       <c r="E3" t="n">
         <v>1172682.444294781</v>
       </c>
       <c r="F3" t="n">
-        <v>2.842170943040401e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>34482.34788790479</v>
+        <v>34482.34788790482</v>
       </c>
       <c r="J3" t="n">
-        <v>48414.88702241769</v>
+        <v>48414.88702241781</v>
       </c>
       <c r="K3" t="n">
-        <v>2.842170943040401e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2160.442794366585</v>
+        <v>2160.44279436653</v>
       </c>
       <c r="M3" t="n">
-        <v>209768.7628061441</v>
+        <v>209768.762806144</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>414559.4325028097</v>
+        <v>414559.4325028098</v>
       </c>
       <c r="C4" t="n">
         <v>414559.4325028097</v>
@@ -26424,40 +26424,40 @@
         <v>413719.6142666658</v>
       </c>
       <c r="E4" t="n">
-        <v>61257.00748796243</v>
+        <v>61257.00748796244</v>
       </c>
       <c r="F4" t="n">
-        <v>61257.0074879625</v>
+        <v>61257.00748796244</v>
       </c>
       <c r="G4" t="n">
-        <v>61257.00748796243</v>
+        <v>61257.00748796244</v>
       </c>
       <c r="H4" t="n">
-        <v>61257.00748796243</v>
+        <v>61257.00748796239</v>
       </c>
       <c r="I4" t="n">
-        <v>74601.16991356853</v>
+        <v>74601.16991356859</v>
       </c>
       <c r="J4" t="n">
         <v>45917.41774240549</v>
       </c>
       <c r="K4" t="n">
-        <v>45917.4177424055</v>
+        <v>45917.41774240549</v>
       </c>
       <c r="L4" t="n">
-        <v>47572.28822238798</v>
+        <v>47572.28822238794</v>
       </c>
       <c r="M4" t="n">
-        <v>74601.16991356862</v>
+        <v>74601.16991356856</v>
       </c>
       <c r="N4" t="n">
-        <v>74601.16991356862</v>
+        <v>74601.16991356858</v>
       </c>
       <c r="O4" t="n">
-        <v>74601.16991356862</v>
+        <v>74601.16991356859</v>
       </c>
       <c r="P4" t="n">
-        <v>74601.16991356861</v>
+        <v>74601.16991356864</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33923.36801956948</v>
+        <v>33923.36801956951</v>
       </c>
       <c r="C5" t="n">
-        <v>33923.36801956948</v>
+        <v>33923.36801956951</v>
       </c>
       <c r="D5" t="n">
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>81493.92066260848</v>
+        <v>81493.92066260846</v>
       </c>
       <c r="F5" t="n">
-        <v>81493.92066260848</v>
+        <v>81493.92066260846</v>
       </c>
       <c r="G5" t="n">
-        <v>81493.92066260848</v>
+        <v>81493.92066260846</v>
       </c>
       <c r="H5" t="n">
-        <v>81493.92066260848</v>
+        <v>81493.92066260846</v>
       </c>
       <c r="I5" t="n">
         <v>89377.94167480612</v>
@@ -26497,16 +26497,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>95975.91266396242</v>
+        <v>95975.91266396246</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>205927.5854010899</v>
+        <v>205925.1079362447</v>
       </c>
       <c r="C6" t="n">
-        <v>207557.8266185601</v>
+        <v>207555.3491537153</v>
       </c>
       <c r="D6" t="n">
-        <v>205313.3982623904</v>
+        <v>205313.3982623906</v>
       </c>
       <c r="E6" t="n">
-        <v>-690645.5641333112</v>
+        <v>-690745.7066569966</v>
       </c>
       <c r="F6" t="n">
-        <v>482036.8801614703</v>
+        <v>481936.7376377847</v>
       </c>
       <c r="G6" t="n">
-        <v>482036.8801614703</v>
+        <v>481936.7376377849</v>
       </c>
       <c r="H6" t="n">
-        <v>482036.880161471</v>
+        <v>481936.737637785</v>
       </c>
       <c r="I6" t="n">
-        <v>458371.9564151464</v>
+        <v>458371.9564151473</v>
       </c>
       <c r="J6" t="n">
-        <v>444615.0360006359</v>
+        <v>444547.8405104099</v>
       </c>
       <c r="K6" t="n">
-        <v>493029.9230230536</v>
+        <v>492962.7275328281</v>
       </c>
       <c r="L6" t="n">
-        <v>490858.3757681823</v>
+        <v>490795.0432792999</v>
       </c>
       <c r="M6" t="n">
-        <v>283085.5414969074</v>
+        <v>283085.541496908</v>
       </c>
       <c r="N6" t="n">
-        <v>492854.3043030518</v>
+        <v>492854.3043030524</v>
       </c>
       <c r="O6" t="n">
         <v>492854.3043030517</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="M2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="C4" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="D4" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>884.6650629816796</v>
+        <v>884.6650629816795</v>
       </c>
       <c r="F4" t="n">
-        <v>884.6650629816796</v>
+        <v>884.6650629816795</v>
       </c>
       <c r="G4" t="n">
-        <v>884.6650629816796</v>
+        <v>884.6650629816795</v>
       </c>
       <c r="H4" t="n">
-        <v>884.6650629816796</v>
+        <v>884.6650629816795</v>
       </c>
       <c r="I4" t="n">
         <v>1014.336461208615</v>
@@ -26817,19 +26817,19 @@
         <v>1194.51293060493</v>
       </c>
       <c r="L4" t="n">
-        <v>1184.074798674819</v>
+        <v>1184.07479867482</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.700553492958231</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="M2" t="n">
-        <v>44.27458312563433</v>
+        <v>44.27458312563439</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>10.43813193011075</v>
+        <v>10.43813193011033</v>
       </c>
       <c r="E4" t="n">
-        <v>869.3623254665446</v>
+        <v>869.3623254665445</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>129.671398226935</v>
+        <v>129.6713982269351</v>
       </c>
       <c r="J4" t="n">
-        <v>185.0410749813399</v>
+        <v>185.0410749813403</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>699.6239880003398</v>
+        <v>699.623988000339</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>10.43813193011075</v>
+        <v>10.43813193011033</v>
       </c>
       <c r="M4" t="n">
-        <v>869.3623254665446</v>
+        <v>869.3623254665445</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>335.1900575164774</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.126093629520501</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27430,7 +27430,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>218.2312439791066</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>365.4463560791796</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27470,16 +27470,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>132.4789115781863</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>84.53202726639077</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27512,19 +27512,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>221.0767764959501</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>227.9359815644005</v>
       </c>
       <c r="W3" t="n">
-        <v>248.1568298878881</v>
+        <v>246.8303775758949</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>200.8180901922801</v>
+        <v>201.3979511780146</v>
       </c>
     </row>
     <row r="4">
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>140.556442437907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>157.3625669224153</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>150.585869342234</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27576,19 +27576,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>173.0086467778797</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>219.1519924519475</v>
       </c>
       <c r="T4" t="n">
-        <v>226.3822855640986</v>
+        <v>223.0809838432568</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>281.6583927515663</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>350.3982970213932</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>7.084683769588214</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>204.1554640012206</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>365.4463560791796</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27713,10 +27713,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>84.53202726639077</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.29322856761883</v>
+        <v>95.29322856761841</v>
       </c>
       <c r="S6" t="n">
-        <v>166.8185655188135</v>
+        <v>166.8185655188131</v>
       </c>
       <c r="T6" t="n">
-        <v>196.6265754217901</v>
+        <v>195.3001231097969</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>228.5158425501355</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>174.967374596913</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27816,25 +27816,25 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>81.29743766666967</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>219.1519924519475</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>282.0342847572015</v>
+        <v>281.4544237714662</v>
       </c>
       <c r="V7" t="n">
-        <v>247.2730377388037</v>
+        <v>247.8528987245382</v>
       </c>
       <c r="W7" t="n">
-        <v>281.6583927515667</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27862,19 +27862,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>391.5733082265764</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>332.8721966541476</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>202.1786694369367</v>
+        <v>193.7173320711103</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>333.938231202278</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>151.2304461347323</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>132.1423280495037</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27944,16 +27944,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>124.6114572861376</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>96.93270672136141</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>86.67918294931219</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27986,13 +27986,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>210.6386445658398</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>236.3922456457846</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>130.1183105077962</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28032,7 +28032,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>79.88052891334183</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28062,13 +28062,13 @@
         <v>208.7138605218372</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>214.4669382249506</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>236.834905808693</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292598</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="C32" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="D32" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="E32" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="F32" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="G32" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="H32" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="I32" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="T32" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="U32" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="V32" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="W32" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="X32" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="C34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="D34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="E34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="F34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="G34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="H34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="I34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="J34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="K34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="L34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="M34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="N34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="O34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="P34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="R34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="S34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="T34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="U34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="V34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="W34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="X34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.700553492958274</v>
+        <v>2.700553492958162</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859267</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34702,19 +34702,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="M2" t="n">
-        <v>4.668055864417262</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="N2" t="n">
-        <v>4.864605585024304</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.864605585024304</v>
+        <v>4.668055864417658</v>
       </c>
       <c r="P2" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="N3" t="n">
-        <v>4.668055864417262</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.864605585024304</v>
+        <v>4.668055864417659</v>
       </c>
       <c r="P3" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="M4" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="N4" t="n">
-        <v>4.668055864417262</v>
+        <v>4.668055864417658</v>
       </c>
       <c r="O4" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="L5" t="n">
-        <v>4.668055864417262</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>4.668055864417658</v>
       </c>
       <c r="N5" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>4.864605585024304</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4.864605585024304</v>
+        <v>4.668055864417659</v>
       </c>
       <c r="L6" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,10 +35027,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>4.668055864417262</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="P6" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,16 +35097,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>4.668055864417262</v>
+        <v>4.668055864417659</v>
       </c>
       <c r="M7" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="N7" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="O7" t="n">
-        <v>4.864605585024304</v>
+        <v>4.864605585024719</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="L8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="N8" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="O9" t="n">
         <v>14.68444509028111</v>
       </c>
       <c r="P9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,10 +35334,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="M10" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="M10" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="N10" t="n">
         <v>15.30273751513505</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>335.9729464605762</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>482.3772320472636</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923319</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
         <v>394.6085160120763</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554004</v>
@@ -35662,13 +35662,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>609.6643515842176</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>101.4189487349977</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861326</v>
@@ -35820,7 +35820,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>335.9729464605762</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554004</v>
@@ -35896,7 +35896,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>718.9553662530652</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193716</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>482.3772320472625</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>101.4189487349977</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M22" t="n">
         <v>394.6085160120763</v>
@@ -36294,7 +36294,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3693751564862</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>203.4751702124582</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>461.7098777104072</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36522,7 +36522,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N25" t="n">
         <v>391.8320827861326</v>
@@ -36531,7 +36531,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3693751564862</v>
@@ -36598,25 +36598,25 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>513.2623588395702</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359043</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359043</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>432.9015650403126</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>758.9619130238196</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>899.4021282948077</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>48.27897010602447</v>
+        <v>48.27897010602436</v>
       </c>
       <c r="K34" t="n">
-        <v>208.7482130372778</v>
+        <v>208.7482130372777</v>
       </c>
       <c r="L34" t="n">
-        <v>322.4579256631563</v>
+        <v>322.4579256631562</v>
       </c>
       <c r="M34" t="n">
         <v>350.333932886442</v>
       </c>
       <c r="N34" t="n">
-        <v>347.5574996604983</v>
+        <v>347.5574996604982</v>
       </c>
       <c r="O34" t="n">
-        <v>305.053683715598</v>
+        <v>305.0536837155979</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6576246380687</v>
+        <v>237.6576246380685</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.09479203085191</v>
+        <v>81.09479203085179</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554004</v>
@@ -37312,7 +37312,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>729.1561268582152</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129113</v>
@@ -37321,13 +37321,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>290.8164461252064</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
@@ -37479,7 +37479,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>614.4119707098162</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
@@ -37558,13 +37558,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>705.4494815282975</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120763</v>
@@ -37780,16 +37780,16 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>825.9229012776192</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>952.5051327011225</v>
       </c>
       <c r="O41" t="n">
         <v>508.053000888219</v>
@@ -38020,16 +38020,16 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>827.1370117794555</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>814.7404961971451</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193716</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
